--- a/excel_output/excel_files_20240930_113906/raw_files/case_acc.xlsx
+++ b/excel_output/excel_files_20240930_113906/raw_files/case_acc.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltacapita-my.sharepoint.com/personal/john_elliott_deltacapita_com/Documents/Desktop/EXCEL_PROJECT/excel_output/excel_files_20240930_113906/raw_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_6ADD62F0F613C876C3644070590886C37768CFC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519BE3B4-C905-4716-9ABA-9CE79FF968FB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,11 +223,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,13 +291,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +343,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -363,6 +377,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -397,9 +412,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,14 +588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -685,13 +708,13 @@
         <v>48</v>
       </c>
       <c r="J2" s="2">
-        <v>45428.60172453704</v>
+        <v>45428.601724537039</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="2">
-        <v>45429.4681712963</v>
+        <v>45429.468171296299</v>
       </c>
       <c r="R2" t="s">
         <v>56</v>
@@ -712,7 +735,7 @@
         <v>51</v>
       </c>
       <c r="Z2" s="2">
-        <v>45428.60172453704</v>
+        <v>45428.601724537039</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
@@ -721,7 +744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -747,13 +770,13 @@
         <v>49</v>
       </c>
       <c r="J3" s="2">
-        <v>45407.29114583333</v>
+        <v>45407.291145833333</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="2">
-        <v>45425.60965277778</v>
+        <v>45425.609652777777</v>
       </c>
       <c r="N3" t="s">
         <v>54</v>
@@ -771,7 +794,7 @@
         <v>61</v>
       </c>
       <c r="W3" s="2">
-        <v>45539.48972222222</v>
+        <v>45539.489722222221</v>
       </c>
       <c r="X3" t="s">
         <v>63</v>
@@ -780,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="Z3" s="2">
-        <v>45407.29114583333</v>
+        <v>45407.291145833333</v>
       </c>
       <c r="AA3" t="s">
         <v>39</v>
@@ -789,7 +812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -815,13 +838,13 @@
         <v>49</v>
       </c>
       <c r="J4" s="2">
-        <v>45407.23107638889</v>
+        <v>45407.231076388889</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
       <c r="M4" s="2">
-        <v>45425.60952546296</v>
+        <v>45425.609525462962</v>
       </c>
       <c r="N4" t="s">
         <v>54</v>
@@ -839,7 +862,7 @@
         <v>61</v>
       </c>
       <c r="W4" s="2">
-        <v>45539.48987268518</v>
+        <v>45539.489872685182</v>
       </c>
       <c r="X4" t="s">
         <v>64</v>
@@ -848,7 +871,7 @@
         <v>51</v>
       </c>
       <c r="Z4" s="2">
-        <v>45407.23107638889</v>
+        <v>45407.231076388889</v>
       </c>
       <c r="AA4" t="s">
         <v>39</v>
@@ -857,7 +880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -883,13 +906,13 @@
         <v>49</v>
       </c>
       <c r="J5" s="2">
-        <v>45407.22815972222</v>
+        <v>45407.228159722217</v>
       </c>
       <c r="L5" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="2">
-        <v>45428.44564814815</v>
+        <v>45428.445648148147</v>
       </c>
       <c r="N5" t="s">
         <v>54</v>
@@ -907,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="W5" s="2">
-        <v>45539.48990740741</v>
+        <v>45539.489907407413</v>
       </c>
       <c r="X5" t="s">
         <v>64</v>
@@ -916,7 +939,7 @@
         <v>51</v>
       </c>
       <c r="Z5" s="2">
-        <v>45407.22815972222</v>
+        <v>45407.228159722217</v>
       </c>
       <c r="AA5" t="s">
         <v>40</v>
@@ -925,7 +948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -951,13 +974,13 @@
         <v>49</v>
       </c>
       <c r="J6" s="2">
-        <v>45406.41321759259</v>
+        <v>45406.413217592592</v>
       </c>
       <c r="L6" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="2">
-        <v>45406.41480324074</v>
+        <v>45406.414803240739</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
@@ -975,7 +998,7 @@
         <v>61</v>
       </c>
       <c r="W6" s="2">
-        <v>45539.49001157407</v>
+        <v>45539.490011574067</v>
       </c>
       <c r="X6" t="s">
         <v>63</v>
@@ -984,7 +1007,7 @@
         <v>52</v>
       </c>
       <c r="Z6" s="2">
-        <v>45406.41321759259</v>
+        <v>45406.413217592592</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
@@ -993,7 +1016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1042,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="2">
-        <v>45406.1334375</v>
+        <v>45406.133437500001</v>
       </c>
       <c r="L7" t="s">
         <v>51</v>
@@ -1043,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="W7" s="2">
-        <v>45539.49005787037</v>
+        <v>45539.490057870367</v>
       </c>
       <c r="X7" t="s">
         <v>63</v>
@@ -1052,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="Z7" s="2">
-        <v>45406.1334375</v>
+        <v>45406.133437500001</v>
       </c>
       <c r="AA7" t="s">
         <v>40</v>
@@ -1061,7 +1084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1084,13 +1107,13 @@
         <v>50</v>
       </c>
       <c r="J8" s="2">
-        <v>45336.60719907407</v>
+        <v>45336.607199074067</v>
       </c>
       <c r="L8" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="2">
-        <v>45336.68689814815</v>
+        <v>45336.686898148153</v>
       </c>
       <c r="R8" t="s">
         <v>56</v>
@@ -1102,7 +1125,7 @@
         <v>62</v>
       </c>
       <c r="W8" s="2">
-        <v>45539.50283564815</v>
+        <v>45539.502835648149</v>
       </c>
       <c r="X8" t="s">
         <v>63</v>
@@ -1111,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="Z8" s="2">
-        <v>45336.60719907407</v>
+        <v>45336.607199074067</v>
       </c>
       <c r="AA8" t="s">
         <v>38</v>
